--- a/Energy Consumption16.xlsx
+++ b/Energy Consumption16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.59425025230953</v>
+        <v>0.8497306202089479</v>
       </c>
       <c r="C2" t="n">
-        <v>1.210999549507167</v>
+        <v>1.66993850619004</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.984985624081427</v>
+        <v>2.935541320861634</v>
       </c>
       <c r="C3" t="n">
-        <v>2.526627696749833</v>
+        <v>3.319242904023441</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8.503243612581239</v>
+        <v>3.307866141770259</v>
       </c>
       <c r="C4" t="n">
-        <v>3.760400147585655</v>
+        <v>4.769167891355981</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10.73300142868685</v>
+        <v>5.701211927436302</v>
       </c>
       <c r="C5" t="n">
-        <v>4.942164658968927</v>
+        <v>6.286812531847147</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>12.81662408422584</v>
+        <v>6.957028089973347</v>
       </c>
       <c r="C6" t="n">
-        <v>6.195648359420765</v>
+        <v>7.371866663776511</v>
       </c>
     </row>
     <row r="7">
@@ -505,10 +505,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>12.94175503238872</v>
+        <v>7.351241215549599</v>
       </c>
       <c r="C7" t="n">
-        <v>7.515300577053265</v>
+        <v>8.962268866839073</v>
       </c>
     </row>
     <row r="8">
@@ -516,10 +516,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>14.39448870503112</v>
+        <v>7.920421814630269</v>
       </c>
       <c r="C8" t="n">
-        <v>8.917413066241686</v>
+        <v>10.66089065248301</v>
       </c>
     </row>
     <row r="9">
@@ -527,10 +527,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>16.15811107766339</v>
+        <v>12.4980082144637</v>
       </c>
       <c r="C9" t="n">
-        <v>10.01947645721999</v>
+        <v>12.4018605283593</v>
       </c>
     </row>
     <row r="10">
@@ -538,10 +538,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>16.30738070492532</v>
+        <v>13.61541676083227</v>
       </c>
       <c r="C10" t="n">
-        <v>11.27047787111656</v>
+        <v>13.62113227475125</v>
       </c>
     </row>
     <row r="11">
@@ -549,10 +549,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>17.05478936899709</v>
+        <v>15.94428146348539</v>
       </c>
       <c r="C11" t="n">
-        <v>12.75333186805204</v>
+        <v>15.13855134020944</v>
       </c>
     </row>
     <row r="12">
@@ -560,10 +560,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>17.74080946639233</v>
+        <v>19.13922303899406</v>
       </c>
       <c r="C12" t="n">
-        <v>14.02643023776745</v>
+        <v>16.29579942229515</v>
       </c>
     </row>
     <row r="13">
@@ -571,10 +571,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>19.37740898482982</v>
+        <v>21.28099878412854</v>
       </c>
       <c r="C13" t="n">
-        <v>15.13257628562519</v>
+        <v>18.25744292921607</v>
       </c>
     </row>
     <row r="14">
@@ -582,10 +582,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>20.90552487687811</v>
+        <v>25.50485956133809</v>
       </c>
       <c r="C14" t="n">
-        <v>16.38815874713674</v>
+        <v>19.60040237699198</v>
       </c>
     </row>
     <row r="15">
@@ -593,10 +593,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>32.54864172674105</v>
+        <v>26.51076955105791</v>
       </c>
       <c r="C15" t="n">
-        <v>17.72440338647914</v>
+        <v>21.13696139515462</v>
       </c>
     </row>
     <row r="16">
@@ -604,10 +604,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>33.36157768659296</v>
+        <v>34.60021111813396</v>
       </c>
       <c r="C16" t="n">
-        <v>19.08530254041454</v>
+        <v>22.47227450741326</v>
       </c>
     </row>
     <row r="17">
@@ -615,10 +615,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>33.63859454801837</v>
+        <v>36.43006116509981</v>
       </c>
       <c r="C17" t="n">
-        <v>20.24367194291</v>
+        <v>23.77255391857918</v>
       </c>
     </row>
     <row r="18">
@@ -626,10 +626,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>36.15798891065903</v>
+        <v>39.18376976365121</v>
       </c>
       <c r="C18" t="n">
-        <v>21.27069525286833</v>
+        <v>25.06589665113383</v>
       </c>
     </row>
     <row r="19">
@@ -637,10 +637,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>37.21468751222174</v>
+        <v>39.71185182635229</v>
       </c>
       <c r="C19" t="n">
-        <v>22.32284184508528</v>
+        <v>26.19816686124863</v>
       </c>
     </row>
     <row r="20">
@@ -648,10 +648,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>38.03697883559018</v>
+        <v>39.95885669990316</v>
       </c>
       <c r="C20" t="n">
-        <v>23.41631241666634</v>
+        <v>27.76145496906675</v>
       </c>
     </row>
     <row r="21">
@@ -659,10 +659,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>38.77578953360356</v>
+        <v>40.1864458979371</v>
       </c>
       <c r="C21" t="n">
-        <v>24.55021501605265</v>
+        <v>29.55305704522209</v>
       </c>
     </row>
     <row r="22">
@@ -670,10 +670,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>45.08675956114708</v>
+        <v>41.49955496993493</v>
       </c>
       <c r="C22" t="n">
-        <v>25.69234091979202</v>
+        <v>30.79153583739203</v>
       </c>
     </row>
     <row r="23">
@@ -681,10 +681,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>48.34786868402974</v>
+        <v>44.39813841966532</v>
       </c>
       <c r="C23" t="n">
-        <v>27.09775305782495</v>
+        <v>32.10976988238109</v>
       </c>
     </row>
     <row r="24">
@@ -692,10 +692,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>50.13193109438726</v>
+        <v>47.30263598979391</v>
       </c>
       <c r="C24" t="n">
-        <v>28.13711760770157</v>
+        <v>34.05478676198223</v>
       </c>
     </row>
     <row r="25">
@@ -703,10 +703,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>52.81127173305173</v>
+        <v>47.78698397867332</v>
       </c>
       <c r="C25" t="n">
-        <v>29.15831876182618</v>
+        <v>35.4625986237866</v>
       </c>
     </row>
     <row r="26">
@@ -714,10 +714,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>55.86544326174241</v>
+        <v>49.4984593930864</v>
       </c>
       <c r="C26" t="n">
-        <v>30.46040233062125</v>
+        <v>37.08562966033011</v>
       </c>
     </row>
     <row r="27">
@@ -725,10 +725,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>56.04223773928805</v>
+        <v>49.89796625862768</v>
       </c>
       <c r="C27" t="n">
-        <v>31.56117854211825</v>
+        <v>38.69508024229678</v>
       </c>
     </row>
     <row r="28">
@@ -736,10 +736,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>57.49066639804597</v>
+        <v>50.92223511696007</v>
       </c>
       <c r="C28" t="n">
-        <v>32.83929836812028</v>
+        <v>40.37874156138224</v>
       </c>
     </row>
     <row r="29">
@@ -747,10 +747,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>58.54635191564551</v>
+        <v>54.95704749794656</v>
       </c>
       <c r="C29" t="n">
-        <v>34.08638526903826</v>
+        <v>41.95140332576854</v>
       </c>
     </row>
     <row r="30">
@@ -758,10 +758,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>60.86225924968638</v>
+        <v>58.63072393140954</v>
       </c>
       <c r="C30" t="n">
-        <v>35.21602564494688</v>
+        <v>43.24415665142383</v>
       </c>
     </row>
     <row r="31">
@@ -769,10 +769,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>61.89011528939421</v>
+        <v>60.31058917854543</v>
       </c>
       <c r="C31" t="n">
-        <v>36.45932221599617</v>
+        <v>44.8572829353081</v>
       </c>
     </row>
     <row r="32">
@@ -780,10 +780,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>62.01405925213182</v>
+        <v>60.54277840515179</v>
       </c>
       <c r="C32" t="n">
-        <v>37.69813847590984</v>
+        <v>46.53255045599396</v>
       </c>
     </row>
     <row r="33">
@@ -791,10 +791,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>62.33936264161532</v>
+        <v>63.94802032991244</v>
       </c>
       <c r="C33" t="n">
-        <v>38.83621625271388</v>
+        <v>49.57652659226678</v>
       </c>
     </row>
     <row r="34">
@@ -802,10 +802,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>64.5905325344678</v>
+        <v>69.64055892116387</v>
       </c>
       <c r="C34" t="n">
-        <v>40.17816340780297</v>
+        <v>50.82350461759883</v>
       </c>
     </row>
     <row r="35">
@@ -813,10 +813,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>65.16578909910821</v>
+        <v>70.03112457238136</v>
       </c>
       <c r="C35" t="n">
-        <v>41.22064404509107</v>
+        <v>52.3896429630467</v>
       </c>
     </row>
     <row r="36">
@@ -824,10 +824,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>67.12312298533973</v>
+        <v>72.56042996476505</v>
       </c>
       <c r="C36" t="n">
-        <v>42.5471820867184</v>
+        <v>54.40845637139464</v>
       </c>
     </row>
     <row r="37">
@@ -835,10 +835,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>67.23223704119312</v>
+        <v>76.34877935700437</v>
       </c>
       <c r="C37" t="n">
-        <v>43.86077236067283</v>
+        <v>56.13798793569574</v>
       </c>
     </row>
     <row r="38">
@@ -846,10 +846,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>72.61443994204313</v>
+        <v>76.88400044418229</v>
       </c>
       <c r="C38" t="n">
-        <v>44.99189323834268</v>
+        <v>57.31941497915404</v>
       </c>
     </row>
     <row r="39">
@@ -857,10 +857,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>72.80230557422507</v>
+        <v>78.50492656357167</v>
       </c>
       <c r="C39" t="n">
-        <v>46.28299442200636</v>
+        <v>59.0435271410422</v>
       </c>
     </row>
     <row r="40">
@@ -868,10 +868,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>74.62546295286127</v>
+        <v>78.63324987084519</v>
       </c>
       <c r="C40" t="n">
-        <v>47.81430471727229</v>
+        <v>60.29019684164526</v>
       </c>
     </row>
     <row r="41">
@@ -879,10 +879,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>74.67353709908124</v>
+        <v>79.21785093293826</v>
       </c>
       <c r="C41" t="n">
-        <v>48.94603099449396</v>
+        <v>61.81449091057284</v>
       </c>
     </row>
     <row r="42">
@@ -890,10 +890,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>74.86820655338086</v>
+        <v>80.9219025823228</v>
       </c>
       <c r="C42" t="n">
-        <v>50.23145810082479</v>
+        <v>63.40730177004358</v>
       </c>
     </row>
     <row r="43">
@@ -901,10 +901,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>78.81541436021088</v>
+        <v>88.35183388092935</v>
       </c>
       <c r="C43" t="n">
-        <v>51.47460226168773</v>
+        <v>64.61219045535587</v>
       </c>
     </row>
     <row r="44">
@@ -912,10 +912,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>83.83130975784256</v>
+        <v>89.14842979410734</v>
       </c>
       <c r="C44" t="n">
-        <v>53.34296335088763</v>
+        <v>66.42956696734723</v>
       </c>
     </row>
     <row r="45">
@@ -923,10 +923,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>85.10711757131178</v>
+        <v>92.28113899908476</v>
       </c>
       <c r="C45" t="n">
-        <v>54.59524005751498</v>
+        <v>67.65419933846869</v>
       </c>
     </row>
     <row r="46">
@@ -934,10 +934,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>89.15424483775335</v>
+        <v>96.84986321480703</v>
       </c>
       <c r="C46" t="n">
-        <v>55.75636701763941</v>
+        <v>69.04874559135781</v>
       </c>
     </row>
     <row r="47">
@@ -945,10 +945,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>91.86263210395518</v>
+        <v>97.62277343948121</v>
       </c>
       <c r="C47" t="n">
-        <v>56.94666181232818</v>
+        <v>70.5733000991241</v>
       </c>
     </row>
     <row r="48">
@@ -956,21 +956,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>96.203947749042</v>
+        <v>99.33075746032056</v>
       </c>
       <c r="C48" t="n">
-        <v>58.72644215514776</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>98.21747136673854</v>
-      </c>
-      <c r="C49" t="n">
-        <v>59.91440257118199</v>
+        <v>72.08403712205855</v>
       </c>
     </row>
   </sheetData>
